--- a/medicine/Enfance/Le_Secret_du_papyrus/Le_Secret_du_papyrus.xlsx
+++ b/medicine/Enfance/Le_Secret_du_papyrus/Le_Secret_du_papyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Secret du papyrus est un roman historique écrit par Odile Weulersse paru en 1998, édité par Hachette Jeunesse. Il s'agit de la suite du roman Les Pilleurs de sarcophages, dont il reprend les principaux personnages, tout en formant une intrigue autonome. Il est suivi de Disparition sur le Nil.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après sa victoire sur les Hyksôs à Avaris à la fin des Les Pilleurs de sarcophages, le pharaon Ahmôsis Ier désire remercier le dieu Amon pour sa protection en lui offrant une barque solaire ornée de lapis-lazuli, une pierre précieuse bleue. À Éléphantine où ils coulent des jours paisibles dans la demeure de Ramose, Tétiki, le nain danseur Penou et le singe Didiphor reçoivent une convocation : ils doivent se rendre à Thèbes pour se voir confier une mission par Pharaon. Penou s'inquiète cependant à cause d'un rêve peut-être prémonitoire où la déesse Hathor le chassait de ses mamelles, ce qui symbolise selon lui un malheur à venir. En arrivant à Thèbes, Penou rencontre une jeune femme, Rouddidite, danseuse et acrobate, qui lui fait vite comprendre qu'il lui plaît. Il en tombe aussitôt amoureux. Peu après, Tétiki, reçu en audience par Pharaon, se voit confier pour mission de conduire une mission diplomatique et commerciale jusqu'à Byblos afin d'y troquer du lapis-lazuli pour la barque d'Amon. Pour convaincre ses conseillers rendus sceptiques par le jeune âge de Tétiki, Ahmôsis confie à celui-ci une épreuve simple : prouver qu'il peut conduire un char en abattant une antilope à la chasse depuis son char dans un délai de trois jours. L'épreuve ne s'annonce pas difficile pour Tétiki, qui est meilleur à l'arc qu'au boomerang et qui s'entraîne avec sérieux à conduire son char. Mais alors qu'il vient d'abattre l'antilope, ses chevaux s'effondrent, blessés inexplicablement. Penou, prévenu par Didiphor, doit laisser Rouddidite lors d'un de leurs rendez-vous pour voler au secours de son ami. Il constate que les chevaux ont été délibérément blessés par quelqu'un à l'aide d'épines de jujubiers. Qui peut en vouloir encore à Tétiki ?
 Pendant ce temps, Rouddidite rentre régulièrement chez elle pour prendre ses instructions et rapporter des informations auprès du vieil ennemi de Tétiki et Penou : Antef, l'espion hyksôs. Sorti gravement blessé à la jambe de leur aventure précédente, Antef est cloué sur son lit de malade, mais reste capable de nuire. C'est lui qui a demandé à Rouddidite de séduire Penou pour mieux s'en prendre à Tétiki. Peu après, les illusions de Penou se brisent lorsque Rouddidite le rejette. Mais un imprévu se produit : une amie de Tétiki et Penou, Nofret la harpiste, émue par les plaintes de Penou qui souffre beaucoup de ses sentiments bafoués, décide de donner au nain amoureux une fleur très rare, la "fleur qui fait aimer". Penou la fait respirer à Rouddidite, qui, sans s'en rendre compte, devient alors réellement amoureuse du nain.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hachette Jeunesse, 1998  (ISBN 978-2-0132-1536-7)
 Hachette Jeunesse, 2009  (ISBN 2-01322432-X)</t>
